--- a/Участок ремонта форм/Мат. отчет/Ведомость выдачи СИЗ.xlsx
+++ b/Участок ремонта форм/Мат. отчет/Ведомость выдачи СИЗ.xlsx
@@ -21,12 +21,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Один человек'!$A$1:$F$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Респираторы!$A$1:$F$35</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="38">
   <si>
     <t>г. Гомель</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>шт.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 ____________________ 20    г.</t>
   </si>
 </sst>
 </file>
@@ -914,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -953,7 +956,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="18" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
@@ -1078,9 +1081,7 @@
       <c r="C14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="3">
-        <v>8</v>
-      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="6"/>
       <c r="F14" s="2"/>
     </row>
@@ -1095,9 +1096,7 @@
       <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="3">
-        <v>8</v>
-      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="6"/>
       <c r="F15" s="2"/>
     </row>
@@ -1112,9 +1111,7 @@
       <c r="C16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="3">
-        <v>8</v>
-      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="6"/>
       <c r="F16" s="2"/>
     </row>
@@ -1129,9 +1126,7 @@
       <c r="C17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="3">
-        <v>8</v>
-      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="6"/>
       <c r="F17" s="2"/>
     </row>
@@ -1146,9 +1141,7 @@
       <c r="C18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="3">
-        <v>8</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="6"/>
       <c r="F18" s="2"/>
     </row>
@@ -1163,9 +1156,7 @@
       <c r="C19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="3">
-        <v>8</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="6"/>
       <c r="F19" s="2"/>
     </row>
@@ -1180,9 +1171,7 @@
       <c r="C20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="3">
-        <v>8</v>
-      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="6"/>
       <c r="F20" s="2"/>
     </row>
@@ -1197,9 +1186,7 @@
       <c r="C21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="3">
-        <v>8</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="6"/>
       <c r="F21" s="2"/>
     </row>
@@ -1214,9 +1201,7 @@
       <c r="C22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="3">
-        <v>8</v>
-      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="6"/>
       <c r="F22" s="2"/>
     </row>
@@ -1231,9 +1216,7 @@
       <c r="C23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="3">
-        <v>8</v>
-      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="6"/>
       <c r="F23" s="2"/>
     </row>
@@ -1248,9 +1231,7 @@
       <c r="C24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="3">
-        <v>8</v>
-      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="6"/>
       <c r="F24" s="2"/>
     </row>
@@ -1265,9 +1246,7 @@
       <c r="C25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="3">
-        <v>8</v>
-      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="6"/>
       <c r="F25" s="2"/>
     </row>
@@ -1282,9 +1261,7 @@
       <c r="C26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="3">
-        <v>8</v>
-      </c>
+      <c r="D26" s="3"/>
       <c r="E26" s="6"/>
       <c r="F26" s="2"/>
     </row>
@@ -1299,9 +1276,7 @@
       <c r="C27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="3">
-        <v>4</v>
-      </c>
+      <c r="D27" s="3"/>
       <c r="E27" s="6"/>
       <c r="F27" s="2"/>
     </row>
@@ -1313,10 +1288,7 @@
       <c r="C28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="9">
-        <f>SUM(D14:D27)</f>
-        <v>108</v>
-      </c>
+      <c r="D28" s="9"/>
       <c r="E28" s="3" t="s">
         <v>10</v>
       </c>
@@ -1381,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1420,7 +1392,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="18" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
@@ -1545,9 +1517,7 @@
       <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="3">
-        <v>10</v>
-      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="6"/>
       <c r="F14" s="2"/>
     </row>
@@ -1562,9 +1532,7 @@
       <c r="C15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="3">
-        <v>10</v>
-      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="6"/>
       <c r="F15" s="2"/>
     </row>
@@ -1579,9 +1547,7 @@
       <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="3">
-        <v>10</v>
-      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="6"/>
       <c r="F16" s="2"/>
     </row>
@@ -1596,9 +1562,7 @@
       <c r="C17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="3">
-        <v>10</v>
-      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="6"/>
       <c r="F17" s="2"/>
     </row>
@@ -1613,9 +1577,7 @@
       <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="3">
-        <v>10</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="6"/>
       <c r="F18" s="2"/>
     </row>
@@ -1630,9 +1592,7 @@
       <c r="C19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="3">
-        <v>10</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="6"/>
       <c r="F19" s="2"/>
     </row>
@@ -1647,9 +1607,7 @@
       <c r="C20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="3">
-        <v>10</v>
-      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="6"/>
       <c r="F20" s="2"/>
     </row>
@@ -1664,9 +1622,7 @@
       <c r="C21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="3">
-        <v>10</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="6"/>
       <c r="F21" s="2"/>
     </row>
@@ -1681,9 +1637,7 @@
       <c r="C22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="3">
-        <v>10</v>
-      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="6"/>
       <c r="F22" s="2"/>
     </row>
@@ -1698,9 +1652,7 @@
       <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="3">
-        <v>10</v>
-      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="6"/>
       <c r="F23" s="2"/>
     </row>
@@ -1715,9 +1667,7 @@
       <c r="C24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="3">
-        <v>10</v>
-      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="6"/>
       <c r="F24" s="2"/>
     </row>
@@ -1732,9 +1682,7 @@
       <c r="C25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="3">
-        <v>10</v>
-      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="6"/>
       <c r="F25" s="2"/>
     </row>
@@ -1749,9 +1697,7 @@
       <c r="C26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="3">
-        <v>10</v>
-      </c>
+      <c r="D26" s="3"/>
       <c r="E26" s="6"/>
       <c r="F26" s="2"/>
     </row>
@@ -1766,9 +1712,7 @@
       <c r="C27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="3">
-        <v>10</v>
-      </c>
+      <c r="D27" s="3"/>
       <c r="E27" s="6"/>
       <c r="F27" s="2"/>
     </row>
@@ -1780,10 +1724,7 @@
       <c r="C28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="9">
-        <f>SUM(D14:D27)</f>
-        <v>140</v>
-      </c>
+      <c r="D28" s="9"/>
       <c r="E28" s="3" t="s">
         <v>10</v>
       </c>

--- a/Участок ремонта форм/Мат. отчет/Ведомость выдачи СИЗ.xlsx
+++ b/Участок ремонта форм/Мат. отчет/Ведомость выдачи СИЗ.xlsx
@@ -9,24 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="9600" windowHeight="12108" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="9600" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Один человек" sheetId="4" r:id="rId1"/>
     <sheet name="Респираторы" sheetId="1" r:id="rId2"/>
     <sheet name="Перчатки" sheetId="2" r:id="rId3"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId4"/>
+    <sheet name="Очки" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Один человек'!$A$1:$F$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Респираторы!$A$1:$F$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Один человек'!$A$1:$E$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Очки!$A$1:$E$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Перчатки!$A$1:$E$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Респираторы!$A$1:$E$35</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="39">
   <si>
     <t>г. Гомель</t>
   </si>
@@ -163,6 +165,9 @@
   </si>
   <si>
     <t xml:space="preserve">                 ____________________ 20    г.</t>
+  </si>
+  <si>
+    <t>очки защитные</t>
   </si>
 </sst>
 </file>
@@ -313,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -349,6 +354,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -680,22 +688,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="140" zoomScaleNormal="100" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="11" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="7" max="11" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -705,7 +713,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -713,24 +721,24 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -740,7 +748,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -748,17 +756,17 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
@@ -768,17 +776,17 @@
       <c r="E7" s="10"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -786,7 +794,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>29</v>
       </c>
@@ -796,55 +804,59 @@
       <c r="E10" s="13"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="23" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+    <row r="13" spans="1:11" ht="8.4499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
       <c r="E14" s="6"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>9</v>
@@ -858,7 +870,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -866,7 +878,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -874,7 +886,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>11</v>
       </c>
@@ -884,11 +896,11 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -897,8 +909,7 @@
       <c r="F20" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C3:K3"/>
+  <mergeCells count="8">
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A11:E11"/>
@@ -917,22 +928,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:K3"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="11" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="7" max="11" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -942,7 +953,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -950,24 +961,24 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -977,7 +988,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -985,17 +996,17 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>32</v>
       </c>
@@ -1007,17 +1018,17 @@
       <c r="E7" s="10"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1025,7 +1036,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>29</v>
       </c>
@@ -1035,43 +1046,43 @@
       <c r="E10" s="13"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="23" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+    <row r="13" spans="1:11" ht="8.4499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>1</v>
       </c>
@@ -1085,7 +1096,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <f>A14+1</f>
         <v>2</v>
@@ -1100,7 +1111,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <f t="shared" ref="A16:A27" si="0">A15+1</f>
         <v>3</v>
@@ -1115,7 +1126,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1130,7 +1141,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1145,7 +1156,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1160,7 +1171,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1175,7 +1186,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <f>A20+1</f>
         <v>8</v>
@@ -1190,7 +1201,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1205,7 +1216,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <f>A22+1</f>
         <v>10</v>
@@ -1220,7 +1231,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1235,7 +1246,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1250,7 +1261,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <f>A25+1</f>
         <v>13</v>
@@ -1265,7 +1276,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1280,7 +1291,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>9</v>
@@ -1294,7 +1305,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1302,7 +1313,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1310,7 +1321,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>34</v>
       </c>
@@ -1320,11 +1331,11 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1333,16 +1344,15 @@
       <c r="F33" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
+    <mergeCell ref="C6:E6"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="C3:K3"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
@@ -1354,21 +1364,21 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:K3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="11" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="7" max="11" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1378,7 +1388,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1386,24 +1396,24 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1413,7 +1423,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1421,17 +1431,17 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>32</v>
       </c>
@@ -1443,17 +1453,17 @@
       <c r="E7" s="10"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1461,7 +1471,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>29</v>
       </c>
@@ -1471,43 +1481,43 @@
       <c r="E10" s="13"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="23" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+    <row r="13" spans="1:11" ht="8.4499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>1</v>
       </c>
@@ -1521,7 +1531,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <f>A14+1</f>
         <v>2</v>
@@ -1536,7 +1546,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <f t="shared" ref="A16:A27" si="0">A15+1</f>
         <v>3</v>
@@ -1551,7 +1561,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1566,7 +1576,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1581,7 +1591,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1596,7 +1606,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1611,7 +1621,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1626,7 +1636,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1641,7 +1651,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1656,7 +1666,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1671,7 +1681,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1686,7 +1696,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1701,7 +1711,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1716,7 +1726,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>9</v>
@@ -1730,7 +1740,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1738,7 +1748,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1746,7 +1756,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>34</v>
       </c>
@@ -1756,11 +1766,11 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1769,8 +1779,7 @@
       <c r="F33" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C3:K3"/>
+  <mergeCells count="8">
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A11:E11"/>
@@ -1787,12 +1796,420 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="11" width="9.140625" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="8.4499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <f>A14+1</f>
+        <v>2</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <f t="shared" ref="A16:A26" si="0">A15+1</f>
+        <v>3</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Участок ремонта форм/Мат. отчет/Ведомость выдачи СИЗ.xlsx
+++ b/Участок ремонта форм/Мат. отчет/Ведомость выдачи СИЗ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Мат. отчет\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CE930E-4FBB-4EDF-BBCD-D16809D4E88D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="9600" windowHeight="12105"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Один человек" sheetId="4" r:id="rId1"/>
@@ -23,7 +24,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">Перчатки!$A$1:$E$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Респираторы!$A$1:$E$35</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -173,7 +181,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,6 +483,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -510,6 +535,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -685,10 +727,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="140" zoomScaleNormal="100" zoomScaleSheetLayoutView="140" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="140" zoomScaleNormal="100" zoomScaleSheetLayoutView="140" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -925,11 +967,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,7 +1402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -1795,7 +1837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">

--- a/Участок ремонта форм/Мат. отчет/Ведомость выдачи СИЗ.xlsx
+++ b/Участок ремонта форм/Мат. отчет/Ведомость выдачи СИЗ.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Мат. отчет\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CE930E-4FBB-4EDF-BBCD-D16809D4E88D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6D760C-0BD8-4442-8F1A-F25EF6365852}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Один человек" sheetId="4" r:id="rId1"/>
     <sheet name="Респираторы" sheetId="1" r:id="rId2"/>
-    <sheet name="Перчатки" sheetId="2" r:id="rId3"/>
-    <sheet name="Очки" sheetId="5" r:id="rId4"/>
+    <sheet name="Очки" sheetId="5" r:id="rId3"/>
+    <sheet name="Перчатки" sheetId="2" r:id="rId4"/>
+    <sheet name="Повязки" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Один человек'!$A$1:$E$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Очки!$A$1:$E$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Перчатки!$A$1:$E$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Очки!$A$1:$E$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Перчатки!$A$1:$E$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Повязки!$A$1:$E$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Респираторы!$A$1:$E$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="40">
   <si>
     <t>г. Гомель</t>
   </si>
@@ -176,6 +178,9 @@
   </si>
   <si>
     <t>очки защитные</t>
+  </si>
+  <si>
+    <t>повязка (многоразовая)</t>
   </si>
 </sst>
 </file>
@@ -970,7 +975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1402,441 +1407,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K33"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" ht="8.4499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
-        <f>A14+1</f>
-        <v>2</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
-        <f t="shared" ref="A16:A27" si="0">A15+1</f>
-        <v>3</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
@@ -2254,4 +1824,874 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="11" width="9.140625" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="8.4499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <f>A14+1</f>
+        <v>2</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <f t="shared" ref="A16:A27" si="0">A15+1</f>
+        <v>3</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F4A79F-2414-41AC-988C-71D21A6BD19C}">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="11" width="9.140625" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="8.4499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <f>A14+1</f>
+        <v>2</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <f t="shared" ref="A16:A27" si="0">A15+1</f>
+        <v>3</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Участок ремонта форм/Мат. отчет/Ведомость выдачи СИЗ.xlsx
+++ b/Участок ремонта форм/Мат. отчет/Ведомость выдачи СИЗ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Мат. отчет\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6D760C-0BD8-4442-8F1A-F25EF6365852}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FEE0DB-EBF5-4A46-9F0C-1591432A1639}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Один человек" sheetId="4" r:id="rId1"/>
@@ -18,13 +18,21 @@
     <sheet name="Очки" sheetId="5" r:id="rId3"/>
     <sheet name="Перчатки" sheetId="2" r:id="rId4"/>
     <sheet name="Повязки" sheetId="6" r:id="rId5"/>
+    <sheet name="Майки" sheetId="7" r:id="rId6"/>
+    <sheet name="Работники" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Майки!$A$12:$E$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Повязки!$A$12:$E$13</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="5">Майки!$B$14:$B$26</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">Повязки!$B$14:$B$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Майки!$A$1:$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Один человек'!$A$1:$E$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Очки!$A$1:$E$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Перчатки!$A$1:$E$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Перчатки!$A$1:$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Повязки!$A$1:$E$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Респираторы!$A$1:$E$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Работники!$A$1:$E$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Респираторы!$A$1:$E$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="44">
   <si>
     <t>г. Гомель</t>
   </si>
@@ -77,9 +85,6 @@
   </si>
   <si>
     <t>Ф.И.О. работника</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 ____________________ 2019 г.</t>
   </si>
   <si>
     <t xml:space="preserve">На выдачу </t>
@@ -181,6 +186,21 @@
   </si>
   <si>
     <t>повязка (многоразовая)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 ____________________ 20___ г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>майки</t>
+  </si>
+  <si>
+    <t>Суднеко В.В.</t>
+  </si>
+  <si>
+    <t>Работники со II-й квалификационной группой по электробезопасности</t>
   </si>
 </sst>
 </file>
@@ -255,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -327,11 +347,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -380,6 +424,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -394,6 +441,47 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,7 +824,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="140" zoomScaleNormal="100" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +840,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -774,7 +862,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="19" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -806,16 +894,16 @@
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
@@ -824,13 +912,13 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -843,7 +931,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -852,55 +940,51 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="8.4499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -975,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +1076,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1014,7 +1098,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -1046,33 +1130,33 @@
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1085,7 +1169,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1094,39 +1178,39 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="8.4499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1134,10 +1218,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
@@ -1149,10 +1233,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
@@ -1160,14 +1244,14 @@
     </row>
     <row r="16" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
-        <f t="shared" ref="A16:A27" si="0">A15+1</f>
+        <f>A15+1</f>
         <v>3</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>18</v>
+      <c r="B16" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -1175,14 +1259,14 @@
     </row>
     <row r="17" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A17:A18" si="0">A16+1</f>
         <v>4</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>19</v>
+      <c r="B17" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -1194,10 +1278,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="6"/>
@@ -1205,14 +1289,14 @@
     </row>
     <row r="19" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A19:A27" si="1">A18+1</f>
         <v>6</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="6"/>
@@ -1220,14 +1304,14 @@
     </row>
     <row r="20" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="6"/>
@@ -1239,10 +1323,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="6"/>
@@ -1250,14 +1334,14 @@
     </row>
     <row r="22" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="6"/>
@@ -1272,7 +1356,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="6"/>
@@ -1280,14 +1364,14 @@
     </row>
     <row r="24" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="6"/>
@@ -1295,14 +1379,14 @@
     </row>
     <row r="25" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="6"/>
@@ -1314,10 +1398,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="6"/>
@@ -1325,14 +1409,14 @@
     </row>
     <row r="27" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>30</v>
+      <c r="B27" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="6"/>
@@ -1370,7 +1454,7 @@
     </row>
     <row r="31" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1391,6 +1475,9 @@
       <c r="F33" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="B14:B27">
+    <sortCondition ref="B14:B27"/>
+  </sortState>
   <mergeCells count="8">
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="A12:A13"/>
@@ -1410,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,7 +1514,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1449,7 +1536,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -1481,33 +1568,33 @@
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1520,7 +1607,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1529,39 +1616,39 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="8.4499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1569,10 +1656,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
@@ -1584,10 +1671,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
@@ -1599,10 +1686,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -1614,10 +1701,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -1629,10 +1716,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="6"/>
@@ -1644,10 +1731,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="6"/>
@@ -1659,10 +1746,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="6"/>
@@ -1674,10 +1761,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="6"/>
@@ -1689,10 +1776,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="6"/>
@@ -1704,10 +1791,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="6"/>
@@ -1719,10 +1806,10 @@
         <v>11</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="6"/>
@@ -1734,10 +1821,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="6"/>
@@ -1749,10 +1836,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="6"/>
@@ -1790,7 +1877,7 @@
     </row>
     <row r="30" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1811,6 +1898,9 @@
       <c r="F32" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="B14:B26">
+    <sortCondition ref="B14:B26"/>
+  </sortState>
   <mergeCells count="8">
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="A8:E8"/>
@@ -1828,10 +1918,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,7 +1937,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1869,7 +1959,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -1901,33 +1991,33 @@
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1940,7 +2030,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1949,39 +2039,39 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="8.4499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1989,10 +2079,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
@@ -2004,10 +2094,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
@@ -2015,14 +2105,14 @@
     </row>
     <row r="16" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
-        <f t="shared" ref="A16:A27" si="0">A15+1</f>
+        <f>A15+1</f>
         <v>3</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>18</v>
+      <c r="B16" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2030,14 +2120,14 @@
     </row>
     <row r="17" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A17:A26" si="0">A16+1</f>
         <v>4</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2049,10 +2139,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="6"/>
@@ -2064,10 +2154,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="6"/>
@@ -2079,10 +2169,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="6"/>
@@ -2094,10 +2184,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="6"/>
@@ -2109,10 +2199,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="6"/>
@@ -2124,10 +2214,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="6"/>
@@ -2139,10 +2229,10 @@
         <v>11</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="6"/>
@@ -2154,10 +2244,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="6"/>
@@ -2169,42 +2259,35 @@
         <v>13</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="6"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>30</v>
+    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="3" t="s">
-        <v>10</v>
-      </c>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2215,37 +2298,32 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+    <row r="30" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>33</v>
+      </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
   </sheetData>
+  <sortState ref="B14:B26">
+    <sortCondition ref="B14:B26"/>
+  </sortState>
   <mergeCells count="8">
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="A8:E8"/>
@@ -2265,8 +2343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F4A79F-2414-41AC-988C-71D21A6BD19C}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2282,7 +2360,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2304,7 +2382,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -2336,33 +2414,33 @@
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2375,7 +2453,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -2384,50 +2462,51 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="8.4499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+    <row r="13" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
+        <f>A13+1</f>
         <v>1</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
@@ -2439,10 +2518,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
@@ -2450,14 +2529,14 @@
     </row>
     <row r="16" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
-        <f t="shared" ref="A16:A27" si="0">A15+1</f>
+        <f>A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2465,14 +2544,14 @@
     </row>
     <row r="17" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
-        <f t="shared" si="0"/>
+        <f>A16+1</f>
         <v>4</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>19</v>
+      <c r="B17" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2480,14 +2559,13 @@
     </row>
     <row r="18" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="6"/>
@@ -2495,14 +2573,14 @@
     </row>
     <row r="19" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" ref="A19:A27" si="0">A18+1</f>
+        <v>2</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="6"/>
@@ -2511,13 +2589,13 @@
     <row r="20" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="6"/>
@@ -2526,13 +2604,13 @@
     <row r="21" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="6"/>
@@ -2541,13 +2619,13 @@
     <row r="22" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="6"/>
@@ -2556,13 +2634,13 @@
     <row r="23" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="6"/>
@@ -2571,13 +2649,13 @@
     <row r="24" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="6"/>
@@ -2586,13 +2664,13 @@
     <row r="25" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="6"/>
@@ -2601,28 +2679,30 @@
     <row r="26" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="E26" s="6"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="6"/>
@@ -2660,7 +2740,7 @@
     </row>
     <row r="31" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2681,6 +2761,11 @@
       <c r="F33" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A12:E13" xr:uid="{07B0689E-9590-45B3-A353-49E4B7881341}">
+    <sortState ref="A15:E28">
+      <sortCondition ref="B12:B13"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="8">
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="A8:E8"/>
@@ -2694,4 +2779,793 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21969FE-51F3-4E8E-9D68-67D51095B12A}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="11" width="9.140625" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <f>A13+1</f>
+        <v>1</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <f>A14+1</f>
+        <v>2</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <f t="shared" ref="A16:A26" si="0">A15+1</f>
+        <v>3</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A12:E13" xr:uid="{07B0689E-9590-45B3-A353-49E4B7881341}">
+    <sortState ref="A15:E27">
+      <sortCondition ref="B12:B13"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="8">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B3BE17-15F0-4231-A4AA-70273C28F526}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="11" width="9.140625" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
+        <v>1</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38">
+        <f>A14+1</f>
+        <v>2</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
+        <f>A15+1</f>
+        <v>3</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38">
+        <f t="shared" ref="A17:A26" si="0">A16+1</f>
+        <v>4</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
+        <f>A19+1</f>
+        <v>7</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38">
+        <f>A21+1</f>
+        <v>9</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="38">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="38">
+        <f>A24+1</f>
+        <v>12</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="38">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Участок ремонта форм/Мат. отчет/Ведомость выдачи СИЗ.xlsx
+++ b/Участок ремонта форм/Мат. отчет/Ведомость выдачи СИЗ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Мат. отчет\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FEE0DB-EBF5-4A46-9F0C-1591432A1639}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AC3815-A3D3-4DE4-AC86-CC37243FA587}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Один человек" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">Майки!$A$1:$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Один человек'!$A$1:$E$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Очки!$A$1:$E$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Перчатки!$A$1:$E$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Перчатки!$A$1:$E$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Повязки!$A$1:$E$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">Работники!$A$1:$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Респираторы!$A$1:$E$31</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="44">
   <si>
     <t>г. Гомель</t>
   </si>
@@ -427,6 +427,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -442,46 +471,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -894,11 +894,11 @@
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -912,13 +912,13 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -940,39 +940,39 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="35" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="8.4499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1059,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,11 +1130,11 @@
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1150,13 +1150,13 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1178,39 +1178,39 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="35" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="8.4499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1262,8 +1262,8 @@
         <f t="shared" ref="A17:A18" si="0">A16+1</f>
         <v>4</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>42</v>
+      <c r="B17" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
@@ -1278,7 +1278,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
@@ -1293,7 +1293,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
@@ -1308,7 +1308,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
@@ -1323,7 +1323,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
@@ -1338,7 +1338,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
@@ -1353,7 +1353,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>35</v>
@@ -1364,11 +1364,11 @@
     </row>
     <row r="24" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
-        <f t="shared" si="1"/>
+        <f>A23+1</f>
         <v>11</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>26</v>
+      <c r="B24" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>35</v>
@@ -1476,7 +1476,7 @@
     </row>
   </sheetData>
   <sortState ref="B14:B27">
-    <sortCondition ref="B14:B27"/>
+    <sortCondition ref="B14"/>
   </sortState>
   <mergeCells count="8">
     <mergeCell ref="C6:E6"/>
@@ -1568,11 +1568,11 @@
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1588,13 +1588,13 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1616,39 +1616,39 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="35" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="8.4499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1918,10 +1918,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A16"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,11 +1991,11 @@
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2011,13 +2011,13 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2039,39 +2039,39 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="35" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="8.4499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2120,7 +2120,7 @@
     </row>
     <row r="17" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
-        <f t="shared" ref="A17:A26" si="0">A16+1</f>
+        <f t="shared" ref="A17:A27" si="0">A16+1</f>
         <v>4</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -2229,7 +2229,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>32</v>
@@ -2244,11 +2244,9 @@
         <v>12</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="6"/>
       <c r="F25" s="2"/>
@@ -2259,7 +2257,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>32</v>
@@ -2268,26 +2266,33 @@
       <c r="E26" s="6"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5" t="s">
+    <row r="27" spans="1:6" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="3" t="s">
+      <c r="D28" s="9"/>
+      <c r="E28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2298,31 +2303,39 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>33</v>
-      </c>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
   </sheetData>
-  <sortState ref="B14:B26">
-    <sortCondition ref="B14:B26"/>
+  <sortState ref="B14:B27">
+    <sortCondition ref="B14"/>
   </sortState>
   <mergeCells count="8">
     <mergeCell ref="C6:E6"/>
@@ -2414,11 +2427,11 @@
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2434,13 +2447,13 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2462,39 +2475,39 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="35" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2856,11 +2869,11 @@
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2876,13 +2889,13 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2904,39 +2917,39 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="35" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3213,7 +3226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B3BE17-15F0-4231-A4AA-70273C28F526}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3282,20 +3295,20 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -3315,209 +3328,209 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+      <c r="A14" s="29">
         <v>1</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
+      <c r="A15" s="29">
         <f>A14+1</f>
         <v>2</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
+      <c r="A16" s="29">
         <f>A15+1</f>
         <v>3</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
+      <c r="A17" s="29">
         <f t="shared" ref="A17:A26" si="0">A16+1</f>
         <v>4</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
+      <c r="A18" s="29">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
+      <c r="A19" s="29">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
+      <c r="A20" s="29">
         <f>A19+1</f>
         <v>7</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
+      <c r="A21" s="29">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
+      <c r="A22" s="29">
         <f>A21+1</f>
         <v>9</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
+      <c r="A23" s="29">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38">
+      <c r="A24" s="29">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38">
+      <c r="A25" s="29">
         <f>A24+1</f>
         <v>12</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38">
+      <c r="A26" s="29">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="31"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
